--- a/dj10Mall/media/files/StudentModel.xlsx
+++ b/dj10Mall/media/files/StudentModel.xlsx
@@ -4,121 +4,592 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25480" windowHeight="11140" activeTab="3"/>
+    <workbookView windowWidth="19120" windowHeight="15820" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="mysqld" sheetId="1" r:id="rId1"/>
-    <sheet name="mysqld_safe" sheetId="2" r:id="rId2"/>
-    <sheet name="client" sheetId="3" r:id="rId3"/>
-    <sheet name="班级表" sheetId="4" r:id="rId4"/>
+    <sheet name="db_class_room" sheetId="3" r:id="rId1"/>
+    <sheet name="db_teacher" sheetId="5" r:id="rId2"/>
+    <sheet name="db_stu_detail" sheetId="6" r:id="rId3"/>
+    <sheet name="db_student" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
-  <si>
-    <t>键</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>datadir</t>
-  </si>
-  <si>
-    <t>/var/lib/mysql</t>
-  </si>
-  <si>
-    <t>socket</t>
-  </si>
-  <si>
-    <t>/var/lib/mysql/mysql.sock</t>
-  </si>
-  <si>
-    <t>log-bin</t>
-  </si>
-  <si>
-    <t>py-mysql-bin</t>
-  </si>
-  <si>
-    <t>character-set-server</t>
-  </si>
-  <si>
-    <t>utf8</t>
-  </si>
-  <si>
-    <t>collation-server</t>
-  </si>
-  <si>
-    <t>utf8_general_ci</t>
-  </si>
-  <si>
-    <t>log-error</t>
-  </si>
-  <si>
-    <t>/var/log/mysqld.log</t>
-  </si>
-  <si>
-    <t>symbolic-links</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>/var/log/mariadb/mariadb.log</t>
-  </si>
-  <si>
-    <t>pid-file</t>
-  </si>
-  <si>
-    <t>/var/run/mariadb/mariadb.pid</t>
-  </si>
-  <si>
-    <t>default-character-set</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="191">
+  <si>
+    <t>教室名称</t>
+  </si>
+  <si>
+    <t>教室地址</t>
+  </si>
+  <si>
+    <t>可容纳人数</t>
+  </si>
+  <si>
+    <t>是否是多媒体教室</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>班级2</t>
-  </si>
-  <si>
-    <t>班级3</t>
-  </si>
-  <si>
-    <t>班级4</t>
-  </si>
-  <si>
-    <t>班级5</t>
-  </si>
-  <si>
-    <t>班级6</t>
-  </si>
-  <si>
-    <t>班级7</t>
-  </si>
-  <si>
-    <t>班级8</t>
-  </si>
-  <si>
-    <t>班级9</t>
-  </si>
-  <si>
-    <t>班级10</t>
-  </si>
-  <si>
-    <t>班级11</t>
-  </si>
-  <si>
-    <t>班级12</t>
-  </si>
-  <si>
-    <t>班级13</t>
-  </si>
-  <si>
-    <t>班级14</t>
+    <t>room_addr</t>
+  </si>
+  <si>
+    <t>capacity_num</t>
+  </si>
+  <si>
+    <t>isMedia_room</t>
+  </si>
+  <si>
+    <t>百味堂</t>
+  </si>
+  <si>
+    <t>天阙阁，一栋，五层</t>
+  </si>
+  <si>
+    <t>苹果堂</t>
+  </si>
+  <si>
+    <t>天阙阁，一栋，一层</t>
+  </si>
+  <si>
+    <t>香蕉堂</t>
+  </si>
+  <si>
+    <t>天阙阁，一栋，四层</t>
+  </si>
+  <si>
+    <t>手机堂</t>
+  </si>
+  <si>
+    <t>天阙阁，一栋，三层</t>
+  </si>
+  <si>
+    <t>机关堂</t>
+  </si>
+  <si>
+    <t>天阙阁，一栋，二层</t>
+  </si>
+  <si>
+    <t>沙河堂</t>
+  </si>
+  <si>
+    <t>天阙阁，二栋，五层</t>
+  </si>
+  <si>
+    <t>兵甲堂</t>
+  </si>
+  <si>
+    <t>天阙阁，二栋，四层</t>
+  </si>
+  <si>
+    <t>猛虎堂</t>
+  </si>
+  <si>
+    <t>天阙阁，二栋，三层</t>
+  </si>
+  <si>
+    <t>平板堂</t>
+  </si>
+  <si>
+    <t>天阙阁，二栋，二层</t>
+  </si>
+  <si>
+    <t>鞋子堂</t>
+  </si>
+  <si>
+    <t>天阙阁，二栋，一层</t>
+  </si>
+  <si>
+    <t>裤子堂</t>
+  </si>
+  <si>
+    <t>天阙阁，三栋，五层</t>
+  </si>
+  <si>
+    <t>衣服堂</t>
+  </si>
+  <si>
+    <t>天阙阁，三栋，四层</t>
+  </si>
+  <si>
+    <t>眼镜堂</t>
+  </si>
+  <si>
+    <t>天阙阁，三栋，三层</t>
+  </si>
+  <si>
+    <t>书包堂</t>
+  </si>
+  <si>
+    <t>天阙阁，三栋，二层</t>
+  </si>
+  <si>
+    <t>椅子堂</t>
+  </si>
+  <si>
+    <t>天阙阁，三栋，一层</t>
+  </si>
+  <si>
+    <t>桌子堂</t>
+  </si>
+  <si>
+    <t>天阙阁，四栋，五层</t>
+  </si>
+  <si>
+    <t>月饼堂</t>
+  </si>
+  <si>
+    <t>天阙阁，四栋，四层</t>
+  </si>
+  <si>
+    <t>线条堂</t>
+  </si>
+  <si>
+    <t>天阙阁，四栋，三层</t>
+  </si>
+  <si>
+    <t>显示器堂</t>
+  </si>
+  <si>
+    <t>天阙阁，四栋，二层</t>
+  </si>
+  <si>
+    <t>转接头堂</t>
+  </si>
+  <si>
+    <t>天阙阁，四栋，一层</t>
+  </si>
+  <si>
+    <t>水杯堂</t>
+  </si>
+  <si>
+    <t>天阙阁，五栋，五层</t>
+  </si>
+  <si>
+    <t>纸巾堂</t>
+  </si>
+  <si>
+    <t>天阙阁，五栋，四层</t>
+  </si>
+  <si>
+    <t>游戏堂</t>
+  </si>
+  <si>
+    <t>天阙阁，五栋，三层</t>
+  </si>
+  <si>
+    <t>地铁堂</t>
+  </si>
+  <si>
+    <t>天阙阁，五栋，二层</t>
+  </si>
+  <si>
+    <t>马路堂</t>
+  </si>
+  <si>
+    <t>天阙阁，五栋，一层</t>
+  </si>
+  <si>
+    <t>教师的名字</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>简介</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>brief</t>
+  </si>
+  <si>
+    <t>暮云</t>
+  </si>
+  <si>
+    <t>诸天神将，为我独尊</t>
+  </si>
+  <si>
+    <t>小万</t>
+  </si>
+  <si>
+    <t>万年老鬼再次</t>
+  </si>
+  <si>
+    <t>小枭</t>
+  </si>
+  <si>
+    <t>云走血雅间</t>
+  </si>
+  <si>
+    <t>林风</t>
+  </si>
+  <si>
+    <t>一室独尊动漫小说任你看00</t>
+  </si>
+  <si>
+    <t>秦晨</t>
+  </si>
+  <si>
+    <t>一室独尊动漫小说任你看11</t>
+  </si>
+  <si>
+    <t>林浩</t>
+  </si>
+  <si>
+    <t>一室独尊动漫小说任你看22</t>
+  </si>
+  <si>
+    <t>镊子云</t>
+  </si>
+  <si>
+    <t>一室独尊动漫小说任你看33</t>
+  </si>
+  <si>
+    <t>飘雪</t>
+  </si>
+  <si>
+    <t>一室独尊动漫小说任你看44</t>
+  </si>
+  <si>
+    <t>罗雅文</t>
+  </si>
+  <si>
+    <t>一室独尊动漫小说任你看55</t>
+  </si>
+  <si>
+    <t>罗贯中</t>
+  </si>
+  <si>
+    <t>一室独尊动漫小说任你看66</t>
+  </si>
+  <si>
+    <t>谢敏</t>
+  </si>
+  <si>
+    <t>一室独尊动漫小说任你看77</t>
+  </si>
+  <si>
+    <t>妖神</t>
+  </si>
+  <si>
+    <t>一室独尊动漫小说任你看88</t>
+  </si>
+  <si>
+    <t>磨云腾</t>
+  </si>
+  <si>
+    <t>一室独尊动漫小说任你看99</t>
+  </si>
+  <si>
+    <t>昵称</t>
+  </si>
+  <si>
+    <t>家庭地址</t>
+  </si>
+  <si>
+    <t>出生-年月日时分</t>
+  </si>
+  <si>
+    <t>父亲姓名</t>
+  </si>
+  <si>
+    <t>母亲姓名</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>family_addr</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>father_name</t>
+  </si>
+  <si>
+    <t>mother_name</t>
+  </si>
+  <si>
+    <t>昵称66</t>
+  </si>
+  <si>
+    <t>北京市，海淀区，新中关村，中国电子大厦 1楼114号</t>
+  </si>
+  <si>
+    <t>保密</t>
+  </si>
+  <si>
+    <t>昵称67</t>
+  </si>
+  <si>
+    <t>北京市，海淀区，新中关村，中国电子大厦 1楼115号</t>
+  </si>
+  <si>
+    <t>昵称68</t>
+  </si>
+  <si>
+    <t>北京市，海淀区，新中关村，中国电子大厦 1楼116号</t>
+  </si>
+  <si>
+    <t>昵称69</t>
+  </si>
+  <si>
+    <t>北京市，海淀区，新中关村，中国电子大厦 1楼117号</t>
+  </si>
+  <si>
+    <t>昵称70</t>
+  </si>
+  <si>
+    <t>北京市，海淀区，新中关村，中国电子大厦 1楼118号</t>
+  </si>
+  <si>
+    <t>昵称71</t>
+  </si>
+  <si>
+    <t>北京市，海淀区，新中关村，中国电子大厦 1楼119号</t>
+  </si>
+  <si>
+    <t>昵称72</t>
+  </si>
+  <si>
+    <t>北京市，海淀区，新中关村，中国电子大厦 1楼120号</t>
+  </si>
+  <si>
+    <t>昵称11</t>
+  </si>
+  <si>
+    <t>北京市，海淀区，新中关村，中国电子大厦 1楼121号</t>
+  </si>
+  <si>
+    <t>昵称12</t>
+  </si>
+  <si>
+    <t>北京市，海淀区，新中关村，中国电子大厦 1楼122号</t>
+  </si>
+  <si>
+    <t>昵称13</t>
+  </si>
+  <si>
+    <t>北京市，朝阳区，红军营路，舞美大厦5楼321号</t>
+  </si>
+  <si>
+    <t>昵称14</t>
+  </si>
+  <si>
+    <t>北京市，朝阳区，红军营路，舞美大厦5楼322号</t>
+  </si>
+  <si>
+    <t>昵称15</t>
+  </si>
+  <si>
+    <t>北京市，朝阳区，红军营路，舞美大厦5楼323号</t>
+  </si>
+  <si>
+    <t>昵称16</t>
+  </si>
+  <si>
+    <t>北京市，朝阳区，红军营路，舞美大厦5楼324号</t>
+  </si>
+  <si>
+    <t>昵称17</t>
+  </si>
+  <si>
+    <t>北京市，朝阳区，红军营路，舞美大厦5楼325号</t>
+  </si>
+  <si>
+    <t>昵称18</t>
+  </si>
+  <si>
+    <t>北京市，朝阳区，红军营路，舞美大厦5楼326号</t>
+  </si>
+  <si>
+    <t>昵称19</t>
+  </si>
+  <si>
+    <t>北京市，朝阳区，红军营路，舞美大厦5楼327号</t>
+  </si>
+  <si>
+    <t>昵称20</t>
+  </si>
+  <si>
+    <t>北京市，朝阳区，红军营路，舞美大厦5楼328号</t>
+  </si>
+  <si>
+    <t>昵称88</t>
+  </si>
+  <si>
+    <t>北京市，朝阳区，红军营路，舞美大厦5楼329号</t>
+  </si>
+  <si>
+    <t>昵称89</t>
+  </si>
+  <si>
+    <t>北京市，朝阳区，红军营路，舞美大厦5楼330号</t>
+  </si>
+  <si>
+    <t>昵称90</t>
+  </si>
+  <si>
+    <t>北京市，朝阳区，红军营路，舞美大厦5楼331号</t>
+  </si>
+  <si>
+    <t>昵称91</t>
+  </si>
+  <si>
+    <t>北京市，朝阳区，红军营路，舞美大厦5楼332号</t>
+  </si>
+  <si>
+    <t>昵称92</t>
+  </si>
+  <si>
+    <t>北京市，朝阳区，红军营路，舞美大厦5楼333号</t>
+  </si>
+  <si>
+    <t>昵称93</t>
+  </si>
+  <si>
+    <t>北京市，朝阳区，红军营路，舞美大厦5楼334号</t>
+  </si>
+  <si>
+    <t>昵称94</t>
+  </si>
+  <si>
+    <t>北京市，唱片区，云霞路，创业大厦8楼666号</t>
+  </si>
+  <si>
+    <t>昵称95</t>
+  </si>
+  <si>
+    <t>北京市，唱片区，云霞路，创业大厦8楼667号</t>
+  </si>
+  <si>
+    <t>昵称96</t>
+  </si>
+  <si>
+    <t>北京市，唱片区，云霞路，创业大厦8楼668号</t>
+  </si>
+  <si>
+    <t>昵称97</t>
+  </si>
+  <si>
+    <t>北京市，唱片区，云霞路，创业大厦8楼669号</t>
+  </si>
+  <si>
+    <t>昵称98</t>
+  </si>
+  <si>
+    <t>北京市，唱片区，云霞路，创业大厦8楼670号</t>
+  </si>
+  <si>
+    <t>学生姓名</t>
+  </si>
+  <si>
+    <t>学生详情id</t>
+  </si>
+  <si>
+    <t>stu_detail_id</t>
+  </si>
+  <si>
+    <t>学生姓名3</t>
+  </si>
+  <si>
+    <t>学生姓名4</t>
+  </si>
+  <si>
+    <t>学生姓名5</t>
+  </si>
+  <si>
+    <t>学生姓名6</t>
+  </si>
+  <si>
+    <t>学生姓名7</t>
+  </si>
+  <si>
+    <t>学生姓名8</t>
+  </si>
+  <si>
+    <t>学生姓名9</t>
+  </si>
+  <si>
+    <t>学生姓名10</t>
+  </si>
+  <si>
+    <t>学生姓名11</t>
+  </si>
+  <si>
+    <t>学生姓名12</t>
+  </si>
+  <si>
+    <t>学生姓名13</t>
+  </si>
+  <si>
+    <t>学生姓名14</t>
+  </si>
+  <si>
+    <t>学生姓名15</t>
+  </si>
+  <si>
+    <t>学生姓名16</t>
+  </si>
+  <si>
+    <t>学生姓名17</t>
+  </si>
+  <si>
+    <t>学生姓名18</t>
+  </si>
+  <si>
+    <t>学生姓名19</t>
+  </si>
+  <si>
+    <t>学生姓名20</t>
+  </si>
+  <si>
+    <t>学生姓名21</t>
+  </si>
+  <si>
+    <t>学生姓名22</t>
+  </si>
+  <si>
+    <t>学生姓名23</t>
+  </si>
+  <si>
+    <t>学生姓名24</t>
+  </si>
+  <si>
+    <t>学生姓名25</t>
+  </si>
+  <si>
+    <t>学生姓名26</t>
+  </si>
+  <si>
+    <t>学生姓名27</t>
+  </si>
+  <si>
+    <t>学生姓名28</t>
+  </si>
+  <si>
+    <t>学生姓名29</t>
+  </si>
+  <si>
+    <t>学生姓名30</t>
   </si>
 </sst>
 </file>
@@ -126,10 +597,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -146,26 +617,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color rgb="FF92D69E"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,16 +631,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -206,8 +669,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,13 +701,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -245,38 +710,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,12 +731,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -312,7 +783,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,7 +801,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,73 +921,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,25 +945,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,49 +963,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,9 +994,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,7 +1007,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,17 +1021,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,13 +1060,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,155 +1092,159 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1120,80 +1595,396 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="23.1634615384615" customWidth="1"/>
-    <col min="2" max="2" width="28.6634615384615" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="31.5673076923077" customWidth="1"/>
+    <col min="3" max="3" width="15.5384615384615" customWidth="1"/>
+    <col min="4" max="4" width="21.7884615384615" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+    <row r="2" ht="18" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>26</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>27</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>28</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>29</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1205,36 +1996,234 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="187" zoomScaleNormal="187" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="15.5384615384615" customWidth="1"/>
+    <col min="2" max="2" width="22.2596153846154" customWidth="1"/>
+    <col min="3" max="3" width="12.9230769230769"/>
+    <col min="5" max="5" width="31.5673076923077" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>13512348766</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>13512348767</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>13512348768</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>13512348769</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>13512348770</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>13512348771</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>13512348772</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>13512348773</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>13512348774</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>13512348775</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>13512348776</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>13512348777</v>
+      </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
+      <c r="C15">
+        <v>13512348778</v>
+      </c>
+      <c r="E15" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1246,28 +2235,624 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <cols>
+    <col min="3" max="3" width="54.4807692307692" customWidth="1"/>
+    <col min="4" max="4" width="23.8846153846154" customWidth="1"/>
+    <col min="5" max="5" width="15.5384615384615" customWidth="1"/>
+    <col min="6" max="6" width="13.4615384615385" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="1">
+        <v>37511.5159722222</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="1">
+        <v>37512.5159722222</v>
+      </c>
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="1">
+        <v>37513.5159722222</v>
+      </c>
+      <c r="E5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="1">
+        <v>37514.5159722222</v>
+      </c>
+      <c r="E6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="1">
+        <v>37515.5159722222</v>
+      </c>
+      <c r="E7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="1">
+        <v>37516.5159722222</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="1">
+        <v>37517.5159722222</v>
+      </c>
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="1">
+        <v>37518.5159722222</v>
+      </c>
+      <c r="E10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="1">
+        <v>37519.5159722222</v>
+      </c>
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="1">
+        <v>37114.5159722222</v>
+      </c>
+      <c r="E12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="1">
+        <v>37115.5159722222</v>
+      </c>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="1">
+        <v>37116.5159722222</v>
+      </c>
+      <c r="E14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="1">
+        <v>37117.5159722222</v>
+      </c>
+      <c r="E15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="1">
+        <v>37118.5159722222</v>
+      </c>
+      <c r="E16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="1">
+        <v>37119.5159722222</v>
+      </c>
+      <c r="E17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="1">
+        <v>37120.5159722222</v>
+      </c>
+      <c r="E18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="1">
+        <v>37121.5159722222</v>
+      </c>
+      <c r="E19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="1">
+        <v>37122.5159722222</v>
+      </c>
+      <c r="E20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="1">
+        <v>36524.5159722222</v>
+      </c>
+      <c r="E21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="1">
+        <v>36525.5159722222</v>
+      </c>
+      <c r="E22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="1">
+        <v>36526.5159722222</v>
+      </c>
+      <c r="E23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="1">
+        <v>36527.5159722222</v>
+      </c>
+      <c r="E24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="1">
+        <v>36528.5159722222</v>
+      </c>
+      <c r="E25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="1">
+        <v>36529.5159722222</v>
+      </c>
+      <c r="E26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="1">
+        <v>36530.5159722222</v>
+      </c>
+      <c r="E27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="1">
+        <v>36531.5159722222</v>
+      </c>
+      <c r="E28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="1">
+        <v>36532.5159722222</v>
+      </c>
+      <c r="E29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="1">
+        <v>36533.5159722222</v>
+      </c>
+      <c r="E30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1279,82 +2864,347 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="15.8653846153846" customWidth="1"/>
+    <col min="2" max="2" width="23.7211538461538" customWidth="1"/>
+    <col min="3" max="3" width="19.2211538461538" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3">
+        <v>18167894321</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4">
+        <v>18167894322</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5">
+        <v>18167894323</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6">
+        <v>18167894324</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7">
+        <v>18167894325</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8">
+        <v>18167894326</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9">
+        <v>18167894327</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10">
+        <v>18167894328</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11">
+        <v>18167894329</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12">
+        <v>18167894330</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13">
+        <v>18167894331</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14">
+        <v>18167894332</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15">
+        <v>18167894333</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16">
+        <v>18167894334</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17">
+        <v>18167894335</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18">
+        <v>18167894336</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19">
+        <v>18167894337</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20">
+        <v>18167894338</v>
+      </c>
+      <c r="C20">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21">
+        <v>18167894339</v>
+      </c>
+      <c r="C21">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22">
+        <v>18167894340</v>
+      </c>
+      <c r="C22">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23">
+        <v>18167894341</v>
+      </c>
+      <c r="C23">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24">
+        <v>18167894342</v>
+      </c>
+      <c r="C24">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25">
+        <v>18167894343</v>
+      </c>
+      <c r="C25">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26">
+        <v>18167894344</v>
+      </c>
+      <c r="C26">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27">
+        <v>18167894345</v>
+      </c>
+      <c r="C27">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28">
+        <v>18167894346</v>
+      </c>
+      <c r="C28">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29">
+        <v>18167894347</v>
+      </c>
+      <c r="C29">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30">
+        <v>18167894348</v>
+      </c>
+      <c r="C30">
         <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
